--- a/server/data/users.xlsx
+++ b/server/data/users.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="271">
   <si>
     <t>工号</t>
   </si>
@@ -52,7 +52,781 @@
     <t>科维托娃</t>
   </si>
   <si>
-    <t>科维托娃2</t>
+    <t>000005</t>
+  </si>
+  <si>
+    <t>卡普</t>
+  </si>
+  <si>
+    <t>000006</t>
+  </si>
+  <si>
+    <t>小白菜</t>
+  </si>
+  <si>
+    <t>000007</t>
+  </si>
+  <si>
+    <t>贝尔滕斯</t>
+  </si>
+  <si>
+    <t>000008</t>
+  </si>
+  <si>
+    <t>科贝尔</t>
+  </si>
+  <si>
+    <t>000009</t>
+  </si>
+  <si>
+    <t>萨巴</t>
+  </si>
+  <si>
+    <t>000010</t>
+  </si>
+  <si>
+    <t>小威</t>
+  </si>
+  <si>
+    <t>000011</t>
+  </si>
+  <si>
+    <t>大威</t>
+  </si>
+  <si>
+    <t>000012</t>
+  </si>
+  <si>
+    <t>巴蒂</t>
+  </si>
+  <si>
+    <t>000013</t>
+  </si>
+  <si>
+    <t>沃兹</t>
+  </si>
+  <si>
+    <t>000014</t>
+  </si>
+  <si>
+    <t>卡萨</t>
+  </si>
+  <si>
+    <t>000015</t>
+  </si>
+  <si>
+    <t>格格</t>
+  </si>
+  <si>
+    <t>000016</t>
+  </si>
+  <si>
+    <t>凯斯</t>
+  </si>
+  <si>
+    <t>000017</t>
+  </si>
+  <si>
+    <t>梅尔滕斯</t>
+  </si>
+  <si>
+    <t>000019</t>
+  </si>
+  <si>
+    <t>王蔷</t>
+  </si>
+  <si>
+    <t>000020</t>
+  </si>
+  <si>
+    <t>加西亚</t>
+  </si>
+  <si>
+    <t>000021</t>
+  </si>
+  <si>
+    <t>穆古鲁扎</t>
+  </si>
+  <si>
+    <t>000022</t>
+  </si>
+  <si>
+    <t>奥胖</t>
+  </si>
+  <si>
+    <t>000023</t>
+  </si>
+  <si>
+    <t>本西奇</t>
+  </si>
+  <si>
+    <t>000024</t>
+  </si>
+  <si>
+    <t>李娜</t>
+  </si>
+  <si>
+    <t>000025</t>
+  </si>
+  <si>
+    <t>阿扎</t>
+  </si>
+  <si>
+    <t>000026</t>
+  </si>
+  <si>
+    <t>谢淑薇</t>
+  </si>
+  <si>
+    <t>000027</t>
+  </si>
+  <si>
+    <t>克妈</t>
+  </si>
+  <si>
+    <t>000028</t>
+  </si>
+  <si>
+    <t>辛吉斯</t>
+  </si>
+  <si>
+    <t>000029</t>
+  </si>
+  <si>
+    <t>塞莱斯</t>
+  </si>
+  <si>
+    <t>000030</t>
+  </si>
+  <si>
+    <t>萨拉波娃</t>
+  </si>
+  <si>
+    <t>000031</t>
+  </si>
+  <si>
+    <t>齐步</t>
+  </si>
+  <si>
+    <t>000032</t>
+  </si>
+  <si>
+    <t>维基奇</t>
+  </si>
+  <si>
+    <t>000033</t>
+  </si>
+  <si>
+    <t>伊万</t>
+  </si>
+  <si>
+    <t>000034</t>
+  </si>
+  <si>
+    <t>杨科</t>
+  </si>
+  <si>
+    <t>000035</t>
+  </si>
+  <si>
+    <t>文奇</t>
+  </si>
+  <si>
+    <t>000036</t>
+  </si>
+  <si>
+    <t>佩内塔</t>
+  </si>
+  <si>
+    <t>000037</t>
+  </si>
+  <si>
+    <t>考特</t>
+  </si>
+  <si>
+    <t>000038</t>
+  </si>
+  <si>
+    <t>埃拉尼</t>
+  </si>
+  <si>
+    <t>000039</t>
+  </si>
+  <si>
+    <t>彭帅</t>
+  </si>
+  <si>
+    <t>000040</t>
+  </si>
+  <si>
+    <t>张帅</t>
+  </si>
+  <si>
+    <t>000041</t>
+  </si>
+  <si>
+    <t>德约</t>
+  </si>
+  <si>
+    <t>ATP</t>
+  </si>
+  <si>
+    <t>000042</t>
+  </si>
+  <si>
+    <t>纳达尔</t>
+  </si>
+  <si>
+    <t>000043</t>
+  </si>
+  <si>
+    <t>费德勒</t>
+  </si>
+  <si>
+    <t>000044</t>
+  </si>
+  <si>
+    <t>小兹</t>
+  </si>
+  <si>
+    <t>000045</t>
+  </si>
+  <si>
+    <t>大师兄</t>
+  </si>
+  <si>
+    <t>000046</t>
+  </si>
+  <si>
+    <t>安德森</t>
+  </si>
+  <si>
+    <t>000047</t>
+  </si>
+  <si>
+    <t>西里奇</t>
+  </si>
+  <si>
+    <t>000048</t>
+  </si>
+  <si>
+    <t>蒂姆</t>
+  </si>
+  <si>
+    <t>000049</t>
+  </si>
+  <si>
+    <t>锦织圭</t>
+  </si>
+  <si>
+    <t>000050</t>
+  </si>
+  <si>
+    <t>伊斯内尔</t>
+  </si>
+  <si>
+    <t>000051</t>
+  </si>
+  <si>
+    <t>卡恰</t>
+  </si>
+  <si>
+    <t>000052</t>
+  </si>
+  <si>
+    <t>丘里奇</t>
+  </si>
+  <si>
+    <t>000053</t>
+  </si>
+  <si>
+    <t>福格尼尼</t>
+  </si>
+  <si>
+    <t>000054</t>
+  </si>
+  <si>
+    <t>西西帕斯</t>
+  </si>
+  <si>
+    <t>000055</t>
+  </si>
+  <si>
+    <t>拉奥</t>
+  </si>
+  <si>
+    <t>000056</t>
+  </si>
+  <si>
+    <t>迪米</t>
+  </si>
+  <si>
+    <t>000057</t>
+  </si>
+  <si>
+    <t>戈芬</t>
+  </si>
+  <si>
+    <t>000058</t>
+  </si>
+  <si>
+    <t>阿古特</t>
+  </si>
+  <si>
+    <t>000059</t>
+  </si>
+  <si>
+    <t>郑玄</t>
+  </si>
+  <si>
+    <t>000060</t>
+  </si>
+  <si>
+    <t>西蒙</t>
+  </si>
+  <si>
+    <t>000061</t>
+  </si>
+  <si>
+    <t>约翰逊</t>
+  </si>
+  <si>
+    <t>000062</t>
+  </si>
+  <si>
+    <t>塞皮</t>
+  </si>
+  <si>
+    <t>000063</t>
+  </si>
+  <si>
+    <t>米尔曼</t>
+  </si>
+  <si>
+    <t>000064</t>
+  </si>
+  <si>
+    <t>查迪</t>
+  </si>
+  <si>
+    <t>000065</t>
+  </si>
+  <si>
+    <t>克里赞</t>
+  </si>
+  <si>
+    <t>000066</t>
+  </si>
+  <si>
+    <t>索萨</t>
+  </si>
+  <si>
+    <t>000067</t>
+  </si>
+  <si>
+    <t>哈赛</t>
+  </si>
+  <si>
+    <t>000068</t>
+  </si>
+  <si>
+    <t>贝克尔</t>
+  </si>
+  <si>
+    <t>000069</t>
+  </si>
+  <si>
+    <t>阿加西</t>
+  </si>
+  <si>
+    <t>000070</t>
+  </si>
+  <si>
+    <t>布莱恩</t>
+  </si>
+  <si>
+    <t>000071</t>
+  </si>
+  <si>
+    <t>穆雷</t>
+  </si>
+  <si>
+    <t>000072</t>
+  </si>
+  <si>
+    <t>瓦林卡</t>
+  </si>
+  <si>
+    <t>000073</t>
+  </si>
+  <si>
+    <t>马胡</t>
+  </si>
+  <si>
+    <t>000074</t>
+  </si>
+  <si>
+    <t>特松佳</t>
+  </si>
+  <si>
+    <t>000075</t>
+  </si>
+  <si>
+    <t>吴迪</t>
+  </si>
+  <si>
+    <t>000076</t>
+  </si>
+  <si>
+    <t>张泽</t>
+  </si>
+  <si>
+    <t>000077</t>
+  </si>
+  <si>
+    <t>林黛玉</t>
+  </si>
+  <si>
+    <t>红楼梦</t>
+  </si>
+  <si>
+    <t>000078</t>
+  </si>
+  <si>
+    <t>薛宝钗</t>
+  </si>
+  <si>
+    <t>000079</t>
+  </si>
+  <si>
+    <t>贾宝玉</t>
+  </si>
+  <si>
+    <t>000080</t>
+  </si>
+  <si>
+    <t>贾元春</t>
+  </si>
+  <si>
+    <t>000081</t>
+  </si>
+  <si>
+    <t>探春</t>
+  </si>
+  <si>
+    <t>000082</t>
+  </si>
+  <si>
+    <t>惜春</t>
+  </si>
+  <si>
+    <t>000083</t>
+  </si>
+  <si>
+    <t>李纨</t>
+  </si>
+  <si>
+    <t>000084</t>
+  </si>
+  <si>
+    <t>妙玉</t>
+  </si>
+  <si>
+    <t>000085</t>
+  </si>
+  <si>
+    <t>史湘云</t>
+  </si>
+  <si>
+    <t>000086</t>
+  </si>
+  <si>
+    <t>王熙凤</t>
+  </si>
+  <si>
+    <t>000087</t>
+  </si>
+  <si>
+    <t>巧姐</t>
+  </si>
+  <si>
+    <t>000088</t>
+  </si>
+  <si>
+    <t>秦可卿</t>
+  </si>
+  <si>
+    <t>000089</t>
+  </si>
+  <si>
+    <t>秦钟</t>
+  </si>
+  <si>
+    <t>000090</t>
+  </si>
+  <si>
+    <t>晴雯</t>
+  </si>
+  <si>
+    <t>000091</t>
+  </si>
+  <si>
+    <t>麝月</t>
+  </si>
+  <si>
+    <t>000092</t>
+  </si>
+  <si>
+    <t>袭人</t>
+  </si>
+  <si>
+    <t>000093</t>
+  </si>
+  <si>
+    <t>鸳鸯</t>
+  </si>
+  <si>
+    <t>000094</t>
+  </si>
+  <si>
+    <t>雪雁</t>
+  </si>
+  <si>
+    <t>000095</t>
+  </si>
+  <si>
+    <t>紫鹃</t>
+  </si>
+  <si>
+    <t>000096</t>
+  </si>
+  <si>
+    <t>碧痕</t>
+  </si>
+  <si>
+    <t>000097</t>
+  </si>
+  <si>
+    <t>平儿</t>
+  </si>
+  <si>
+    <t>000098</t>
+  </si>
+  <si>
+    <t>香莲</t>
+  </si>
+  <si>
+    <t>000099</t>
+  </si>
+  <si>
+    <t>金川</t>
+  </si>
+  <si>
+    <t>000100</t>
+  </si>
+  <si>
+    <t>思琪</t>
+  </si>
+  <si>
+    <t>000101</t>
+  </si>
+  <si>
+    <t>抱琴</t>
+  </si>
+  <si>
+    <t>000102</t>
+  </si>
+  <si>
+    <t>贾政</t>
+  </si>
+  <si>
+    <t>000103</t>
+  </si>
+  <si>
+    <t>贾赦</t>
+  </si>
+  <si>
+    <t>000104</t>
+  </si>
+  <si>
+    <t>贾敬</t>
+  </si>
+  <si>
+    <t>000105</t>
+  </si>
+  <si>
+    <t>贾琏</t>
+  </si>
+  <si>
+    <t>000106</t>
+  </si>
+  <si>
+    <t>贾环</t>
+  </si>
+  <si>
+    <t>000107</t>
+  </si>
+  <si>
+    <t>贾珍</t>
+  </si>
+  <si>
+    <t>000108</t>
+  </si>
+  <si>
+    <t>贾蓉</t>
+  </si>
+  <si>
+    <t>000109</t>
+  </si>
+  <si>
+    <t>贾云</t>
+  </si>
+  <si>
+    <t>000200</t>
+  </si>
+  <si>
+    <t>琪官</t>
+  </si>
+  <si>
+    <t>000209</t>
+  </si>
+  <si>
+    <t>芳官</t>
+  </si>
+  <si>
+    <t>000208</t>
+  </si>
+  <si>
+    <t>藕官</t>
+  </si>
+  <si>
+    <t>000207</t>
+  </si>
+  <si>
+    <t>药官</t>
+  </si>
+  <si>
+    <t>000206</t>
+  </si>
+  <si>
+    <t>蕊官</t>
+  </si>
+  <si>
+    <t>000205</t>
+  </si>
+  <si>
+    <t>玉官</t>
+  </si>
+  <si>
+    <t>000204</t>
+  </si>
+  <si>
+    <t>龄官</t>
+  </si>
+  <si>
+    <t>000203</t>
+  </si>
+  <si>
+    <t>宝官</t>
+  </si>
+  <si>
+    <t>000202</t>
+  </si>
+  <si>
+    <t>茄官</t>
+  </si>
+  <si>
+    <t>000201</t>
+  </si>
+  <si>
+    <t>碧昂丝</t>
+  </si>
+  <si>
+    <t>MUSIC</t>
+  </si>
+  <si>
+    <t>000211</t>
+  </si>
+  <si>
+    <t>麦丹娜</t>
+  </si>
+  <si>
+    <t>000300</t>
+  </si>
+  <si>
+    <t>布兰妮</t>
+  </si>
+  <si>
+    <t>000301</t>
+  </si>
+  <si>
+    <t>蕾哈娜</t>
+  </si>
+  <si>
+    <t>000302</t>
+  </si>
+  <si>
+    <t>阿黛尔</t>
+  </si>
+  <si>
+    <t>000303</t>
+  </si>
+  <si>
+    <t>GAGA</t>
+  </si>
+  <si>
+    <t>000304</t>
+  </si>
+  <si>
+    <t>水果姐</t>
+  </si>
+  <si>
+    <t>000305</t>
+  </si>
+  <si>
+    <t>A妹</t>
+  </si>
+  <si>
+    <t>000306</t>
+  </si>
+  <si>
+    <t>贾老板</t>
+  </si>
+  <si>
+    <t>000307</t>
+  </si>
+  <si>
+    <t>阿姆</t>
+  </si>
+  <si>
+    <t>000308</t>
+  </si>
+  <si>
+    <t>火星哥</t>
+  </si>
+  <si>
+    <t>000309</t>
+  </si>
+  <si>
+    <t>林肯公园</t>
+  </si>
+  <si>
+    <t>000400</t>
+  </si>
+  <si>
+    <t>艾薇儿</t>
+  </si>
+  <si>
+    <t>000401</t>
+  </si>
+  <si>
+    <t>泰勒</t>
+  </si>
+  <si>
+    <t>000402</t>
+  </si>
+  <si>
+    <t>Pink</t>
   </si>
 </sst>
 </file>
@@ -65,13 +839,19 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -89,6 +869,11 @@
       <sz val="12"/>
       <color rgb="FF333333"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -565,10 +1350,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -577,37 +1362,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -616,115 +1395,127 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1048,7 +1839,7 @@
   <dimension ref="A1:C143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.7522123893805" defaultRowHeight="16.1" outlineLevelCol="2"/>
@@ -1057,683 +1848,1497 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="16.15" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" ht="16.15" spans="1:3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" ht="16.15" spans="1:3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" ht="16.15" spans="1:3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" ht="16.15" spans="1:3">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="3"/>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="3"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="2"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="2"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="3"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="2"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="3"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="3"/>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="3"/>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="3"/>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="3"/>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="3"/>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="3"/>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="3"/>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="3"/>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="3"/>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="3"/>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="3"/>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="3"/>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="3"/>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="3"/>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="2"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="3"/>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="3"/>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="3"/>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="3"/>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="3"/>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="3"/>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="3"/>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="3"/>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="3"/>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="3"/>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="3"/>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="3"/>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="3"/>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="3"/>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="3"/>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="3"/>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="3"/>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="3"/>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="3"/>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="3"/>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="3"/>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="3"/>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="3"/>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="3"/>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="3"/>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="3"/>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="3"/>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="3"/>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="3"/>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="3"/>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="3"/>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="3"/>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="2"/>
-      <c r="C80" s="3"/>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="2"/>
-      <c r="C81" s="3"/>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="2"/>
-      <c r="C82" s="3"/>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="2"/>
-      <c r="C83" s="3"/>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="2"/>
-      <c r="C84" s="3"/>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="2"/>
-      <c r="C85" s="3"/>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="2"/>
-      <c r="C86" s="3"/>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="2"/>
-      <c r="C87" s="3"/>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="2"/>
-      <c r="C88" s="3"/>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="2"/>
-      <c r="C89" s="3"/>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="2"/>
-      <c r="C90" s="3"/>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="2"/>
-      <c r="C91" s="3"/>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="2"/>
-      <c r="C92" s="3"/>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="2"/>
-      <c r="C93" s="3"/>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="2"/>
-      <c r="C94" s="3"/>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="2"/>
-      <c r="C95" s="3"/>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="2"/>
-      <c r="C96" s="3"/>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="2"/>
-      <c r="C97" s="3"/>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="2"/>
-      <c r="C98" s="3"/>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="2"/>
-      <c r="C99" s="3"/>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="2"/>
-      <c r="C100" s="3"/>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="2"/>
-      <c r="C101" s="3"/>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="2"/>
-      <c r="C102" s="3"/>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="2"/>
-      <c r="C103" s="3"/>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="2"/>
-      <c r="C104" s="3"/>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="2"/>
-      <c r="C105" s="3"/>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="2"/>
-      <c r="C106" s="3"/>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="2"/>
-      <c r="C107" s="3"/>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="2"/>
-      <c r="B108" s="5"/>
-      <c r="C108" s="3"/>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="2"/>
-      <c r="C109" s="3"/>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="2"/>
-      <c r="B110" s="5"/>
-      <c r="C110" s="3"/>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="2"/>
-      <c r="C111" s="3"/>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="2"/>
-      <c r="C112" s="3"/>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="2"/>
-      <c r="C113" s="3"/>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="2"/>
-      <c r="C114" s="3"/>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="2"/>
-      <c r="C115" s="3"/>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="2"/>
-      <c r="C116" s="3"/>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="2"/>
-      <c r="C117" s="3"/>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="2"/>
-      <c r="C118" s="3"/>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="2"/>
-      <c r="C119" s="3"/>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="2"/>
-      <c r="C120" s="3"/>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="2"/>
-      <c r="C121" s="3"/>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="2"/>
-      <c r="C122" s="3"/>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="2"/>
-      <c r="C123" s="3"/>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="2"/>
-      <c r="C124" s="3"/>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" s="2"/>
-      <c r="C125" s="3"/>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" s="2"/>
-      <c r="C126" s="3"/>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="2"/>
-      <c r="C127" s="3"/>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" s="2"/>
-      <c r="C128" s="3"/>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" s="2"/>
-      <c r="C129" s="3"/>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" s="2"/>
-      <c r="C130" s="3"/>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" s="2"/>
-      <c r="C131" s="3"/>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" s="2"/>
-      <c r="C132" s="3"/>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" s="2"/>
-      <c r="C133" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" ht="16.15" spans="1:3">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" ht="16.15" spans="1:3">
+      <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" ht="16.15" spans="1:3">
+      <c r="A9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" ht="16.15" spans="1:3">
+      <c r="A10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" ht="16.15" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" ht="16.15" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" ht="16.15" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" ht="16.15" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" ht="16.15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" ht="16.15" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" ht="16.15" spans="1:3">
+      <c r="A17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" ht="16.15" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" ht="16.15" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" ht="16.15" spans="1:3">
+      <c r="A20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" ht="16.15" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" ht="16.15" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" ht="16.15" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" ht="16.15" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" ht="16.15" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" ht="16.15" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" ht="16.15" spans="1:3">
+      <c r="A27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" ht="16.15" spans="1:3">
+      <c r="A28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" ht="16.15" spans="1:3">
+      <c r="A29" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" ht="16.15" spans="1:3">
+      <c r="A30" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" ht="16.15" spans="1:3">
+      <c r="A31" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" ht="16.15" spans="1:3">
+      <c r="A32" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" ht="16.15" spans="1:3">
+      <c r="A33" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" ht="16.15" spans="1:3">
+      <c r="A34" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" ht="16.15" spans="1:3">
+      <c r="A35" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" ht="16.15" spans="1:3">
+      <c r="A36" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" ht="16.15" spans="1:3">
+      <c r="A37" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" ht="16.15" spans="1:3">
+      <c r="A38" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" ht="16.15" spans="1:3">
+      <c r="A39" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" ht="16.15" spans="1:3">
+      <c r="A40" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" ht="16.15" spans="1:3">
+      <c r="A41" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" ht="16.15" spans="1:3">
+      <c r="A42" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" ht="16.15" spans="1:3">
+      <c r="A43" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" ht="16.15" spans="1:3">
+      <c r="A44" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" ht="16.15" spans="1:3">
+      <c r="A45" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" ht="16.15" spans="1:3">
+      <c r="A46" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" ht="16.15" spans="1:3">
+      <c r="A47" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" ht="16.15" spans="1:3">
+      <c r="A48" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" ht="16.15" spans="1:3">
+      <c r="A49" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" ht="16.15" spans="1:3">
+      <c r="A50" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" ht="16.15" spans="1:3">
+      <c r="A51" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" ht="16.15" spans="1:3">
+      <c r="A52" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" ht="16.15" spans="1:3">
+      <c r="A53" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" ht="16.15" spans="1:3">
+      <c r="A54" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" ht="16.15" spans="1:3">
+      <c r="A55" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" ht="16.15" spans="1:3">
+      <c r="A56" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" ht="16.15" spans="1:3">
+      <c r="A57" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" ht="16.15" spans="1:3">
+      <c r="A58" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" ht="16.15" spans="1:3">
+      <c r="A59" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" ht="16.15" spans="1:3">
+      <c r="A60" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" ht="16.15" spans="1:3">
+      <c r="A61" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="62" ht="16.15" spans="1:3">
+      <c r="A62" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" ht="16.15" spans="1:3">
+      <c r="A63" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="64" ht="16.15" spans="1:3">
+      <c r="A64" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="65" ht="16.15" spans="1:3">
+      <c r="A65" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="66" ht="16.15" spans="1:3">
+      <c r="A66" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="67" ht="16.15" spans="1:3">
+      <c r="A67" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="68" ht="16.15" spans="1:3">
+      <c r="A68" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="69" ht="16.15" spans="1:3">
+      <c r="A69" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="70" ht="16.15" spans="1:3">
+      <c r="A70" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="71" ht="16.15" spans="1:3">
+      <c r="A71" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="72" ht="16.15" spans="1:3">
+      <c r="A72" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="73" ht="16.15" spans="1:3">
+      <c r="A73" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="74" ht="16.15" spans="1:3">
+      <c r="A74" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="75" ht="16.15" spans="1:3">
+      <c r="A75" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="76" ht="16.15" spans="1:3">
+      <c r="A76" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="77" ht="16.15" spans="1:3">
+      <c r="A77" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="78" ht="16.15" spans="1:3">
+      <c r="A78" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="79" ht="16.15" spans="1:3">
+      <c r="A79" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="80" ht="16.15" spans="1:3">
+      <c r="A80" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="81" ht="16.15" spans="1:3">
+      <c r="A81" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="82" ht="16.15" spans="1:3">
+      <c r="A82" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="83" ht="16.15" spans="1:3">
+      <c r="A83" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="84" ht="16.15" spans="1:3">
+      <c r="A84" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="85" ht="16.15" spans="1:3">
+      <c r="A85" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="86" ht="16.15" spans="1:3">
+      <c r="A86" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="87" ht="16.15" spans="1:3">
+      <c r="A87" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="88" ht="16.15" spans="1:3">
+      <c r="A88" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="89" ht="16.15" spans="1:3">
+      <c r="A89" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="90" ht="16.15" spans="1:3">
+      <c r="A90" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="91" ht="16.15" spans="1:3">
+      <c r="A91" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="92" ht="16.15" spans="1:3">
+      <c r="A92" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="93" ht="16.15" spans="1:3">
+      <c r="A93" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="94" ht="16.15" spans="1:3">
+      <c r="A94" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="95" ht="16.15" spans="1:3">
+      <c r="A95" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="96" ht="16.15" spans="1:3">
+      <c r="A96" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="97" ht="16.15" spans="1:3">
+      <c r="A97" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="98" ht="16.15" spans="1:3">
+      <c r="A98" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="99" ht="16.15" spans="1:3">
+      <c r="A99" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="100" ht="16.15" spans="1:3">
+      <c r="A100" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="101" ht="16.15" spans="1:3">
+      <c r="A101" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="102" ht="16.15" spans="1:3">
+      <c r="A102" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="103" ht="16.15" spans="1:3">
+      <c r="A103" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="104" ht="16.15" spans="1:3">
+      <c r="A104" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="105" ht="16.15" spans="1:3">
+      <c r="A105" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="106" ht="16.15" spans="1:3">
+      <c r="A106" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="107" ht="16.15" spans="1:3">
+      <c r="A107" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="108" ht="16.15" spans="1:3">
+      <c r="A108" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="109" ht="16.15" spans="1:3">
+      <c r="A109" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="110" ht="16.15" spans="1:3">
+      <c r="A110" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="111" ht="16.15" spans="1:3">
+      <c r="A111" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="112" ht="16.15" spans="1:3">
+      <c r="A112" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="113" ht="16.15" spans="1:3">
+      <c r="A113" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="114" ht="16.15" spans="1:3">
+      <c r="A114" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="115" ht="16.15" spans="1:3">
+      <c r="A115" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="116" ht="16.15" spans="1:3">
+      <c r="A116" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="117" ht="16.15" spans="1:3">
+      <c r="A117" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="118" ht="16.15" spans="1:3">
+      <c r="A118" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="119" ht="16.15" spans="1:3">
+      <c r="A119" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="120" ht="16.15" spans="1:3">
+      <c r="A120" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="121" ht="16.15" spans="1:3">
+      <c r="A121" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="122" ht="16.15" spans="1:3">
+      <c r="A122" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="123" ht="16.15" spans="1:3">
+      <c r="A123" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="124" ht="16.15" spans="1:3">
+      <c r="A124" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="125" ht="16.15" spans="1:3">
+      <c r="A125" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="126" ht="16.15" spans="1:3">
+      <c r="A126" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="127" ht="16.15" spans="1:3">
+      <c r="A127" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="128" ht="16.15" spans="1:3">
+      <c r="A128" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="129" ht="16.15" spans="1:3">
+      <c r="A129" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="130" ht="16.15" spans="1:3">
+      <c r="A130" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="131" ht="16.15" spans="1:3">
+      <c r="A131" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="132" ht="16.15" spans="1:3">
+      <c r="A132" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="133" ht="16.15" spans="1:3">
+      <c r="A133" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="134" spans="1:1">
-      <c r="A134" s="3"/>
+      <c r="A134" s="7"/>
     </row>
     <row r="135" spans="1:1">
-      <c r="A135" s="3"/>
+      <c r="A135" s="7"/>
     </row>
     <row r="136" spans="1:1">
-      <c r="A136" s="3"/>
+      <c r="A136" s="7"/>
     </row>
     <row r="137" spans="1:1">
-      <c r="A137" s="3"/>
+      <c r="A137" s="7"/>
     </row>
     <row r="138" spans="1:1">
-      <c r="A138" s="3"/>
+      <c r="A138" s="7"/>
     </row>
     <row r="139" spans="1:1">
-      <c r="A139" s="3"/>
+      <c r="A139" s="7"/>
     </row>
     <row r="140" spans="1:1">
-      <c r="A140" s="3"/>
+      <c r="A140" s="7"/>
     </row>
     <row r="141" spans="1:1">
-      <c r="A141" s="3"/>
+      <c r="A141" s="7"/>
     </row>
     <row r="142" spans="1:1">
-      <c r="A142" s="3"/>
+      <c r="A142" s="7"/>
     </row>
     <row r="143" spans="1:1">
-      <c r="A143" s="3"/>
+      <c r="A143" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/server/data/users.xlsx
+++ b/server/data/users.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="190">
   <si>
     <t>工号</t>
   </si>
@@ -76,6 +76,9 @@
     <t>林杰</t>
   </si>
   <si>
+    <t>丝巾</t>
+  </si>
+  <si>
     <t>ericzenyu</t>
   </si>
   <si>
@@ -199,6 +202,9 @@
     <t>赖妙妙</t>
   </si>
   <si>
+    <t>低碳出行就用它！</t>
+  </si>
+  <si>
     <t>kikihuang</t>
   </si>
   <si>
@@ -424,6 +430,9 @@
     <t>王艳君</t>
   </si>
   <si>
+    <t>爱碍爱非遗竹丝扣瓷杯</t>
+  </si>
+  <si>
     <t>p_landyhe</t>
   </si>
   <si>
@@ -448,6 +457,9 @@
     <t>耿小勇</t>
   </si>
   <si>
+    <t>李佳琦的定制礼物</t>
+  </si>
+  <si>
     <t>yange</t>
   </si>
   <si>
@@ -460,6 +472,9 @@
     <t>李兴刚</t>
   </si>
   <si>
+    <t>星特朗天文望远镜</t>
+  </si>
+  <si>
     <t>rogerji</t>
   </si>
   <si>
@@ -484,19 +499,25 @@
     <t>何志娟</t>
   </si>
   <si>
+    <t>诗和远方</t>
+  </si>
+  <si>
     <t>p_wwerchen</t>
   </si>
   <si>
     <t>陈维维</t>
   </si>
   <si>
+    <t>智能台灯</t>
+  </si>
+  <si>
     <t>elevenliu</t>
   </si>
   <si>
     <t>刘建峥</t>
   </si>
   <si>
-    <t>叮咚买菜购物卡500</t>
+    <t>叮咚买菜购物卡</t>
   </si>
   <si>
     <t>jameszhliu</t>
@@ -517,6 +538,9 @@
     <t>耿华</t>
   </si>
   <si>
+    <t>红酒</t>
+  </si>
+  <si>
     <t>p_silvergao</t>
   </si>
   <si>
@@ -541,10 +565,16 @@
     <t>李思默</t>
   </si>
   <si>
+    <t>柯达胶片相机</t>
+  </si>
+  <si>
     <t>p_yyyiwang</t>
   </si>
   <si>
     <t>王怡</t>
+  </si>
+  <si>
+    <t>复古蓝牙键盘</t>
   </si>
   <si>
     <t>p_pswzheng</t>
@@ -1516,8 +1546,8 @@
   <sheetPr/>
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.7522123893805" defaultRowHeight="16.1" outlineLevelCol="2"/>
@@ -1599,276 +1629,280 @@
       <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="3"/>
+        <v>61</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>17</v>
@@ -1876,347 +1910,363 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C47" s="3"/>
+        <v>137</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C50" s="3"/>
+        <v>146</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="3" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C51" s="3"/>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="3" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C52" s="3"/>
+        <v>151</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="3" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="3" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="3" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C55" s="3"/>
+        <v>160</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="3" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C56" s="3"/>
+        <v>163</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="3" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="3" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="3" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="3" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C60" s="3"/>
+        <v>173</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="3" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="3" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="3" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C63" s="3"/>
+        <v>182</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="3" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C64" s="3"/>
+        <v>185</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="3" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/server/data/users.xlsx
+++ b/server/data/users.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="428">
   <si>
     <t>工号</t>
   </si>
@@ -61,7 +61,7 @@
     <t>jayyi</t>
   </si>
   <si>
-    <t>易剑1</t>
+    <t>易剑110</t>
   </si>
   <si>
     <t>kietchen</t>
@@ -85,7 +85,7 @@
     <t>xinggangli</t>
   </si>
   <si>
-    <t>李兴刚1</t>
+    <t>李兴刚111</t>
   </si>
   <si>
     <t>hunterguo</t>
@@ -97,7 +97,7 @@
     <t>elevenliu</t>
   </si>
   <si>
-    <t>刘建峥1</t>
+    <t>刘建峥110</t>
   </si>
   <si>
     <t>carelye</t>
@@ -109,7 +109,7 @@
     <t>sharkyang</t>
   </si>
   <si>
-    <t>杨晓辉</t>
+    <t>杨晓辉101</t>
   </si>
   <si>
     <t>esonlin</t>
@@ -133,7 +133,7 @@
     <t>christyma</t>
   </si>
   <si>
-    <t>马倩</t>
+    <t>马倩101</t>
   </si>
   <si>
     <t>p_zhilingqi</t>
@@ -175,13 +175,13 @@
     <t>umazhang</t>
   </si>
   <si>
-    <t>章文珠1</t>
+    <t>章文珠110</t>
   </si>
   <si>
     <t>keyoushu</t>
   </si>
   <si>
-    <t>舒克友</t>
+    <t>舒克友101</t>
   </si>
   <si>
     <t>langong</t>
@@ -211,7 +211,7 @@
     <t>gongyusun</t>
   </si>
   <si>
-    <t>孙功宇1</t>
+    <t>孙功宇110</t>
   </si>
   <si>
     <t>saiwang</t>
@@ -235,7 +235,7 @@
     <t>p_wwerchen</t>
   </si>
   <si>
-    <t>陈维维1</t>
+    <t>陈维维110</t>
   </si>
   <si>
     <t>p_longerqiu</t>
@@ -247,19 +247,19 @@
     <t>lipxhfu</t>
   </si>
   <si>
-    <t>傅晓晖</t>
+    <t>傅晓晖101</t>
   </si>
   <si>
     <t>ryderguo</t>
   </si>
   <si>
-    <t>郭云程1</t>
+    <t>郭云程110</t>
   </si>
   <si>
     <t>masonhyli</t>
   </si>
   <si>
-    <t>李航宇1</t>
+    <t>李航宇111</t>
   </si>
   <si>
     <t>p_diankunan</t>
@@ -376,6 +376,12 @@
     <t>罗永婷</t>
   </si>
   <si>
+    <t>v_vypliu</t>
+  </si>
+  <si>
+    <t>刘扬平</t>
+  </si>
+  <si>
     <t>hdyuezhang</t>
   </si>
   <si>
@@ -415,19 +421,19 @@
     <t>henrygeng</t>
   </si>
   <si>
-    <t>耿小勇1</t>
+    <t>耿小勇110</t>
   </si>
   <si>
     <t>jerryjyang</t>
   </si>
   <si>
-    <t>杨杰1</t>
+    <t>杨杰110</t>
   </si>
   <si>
     <t>gokuhou</t>
   </si>
   <si>
-    <t>侯爱林1</t>
+    <t>侯爱林111</t>
   </si>
   <si>
     <t>p_angelafan</t>
@@ -445,19 +451,19 @@
     <t>p_yyyiwang</t>
   </si>
   <si>
-    <t>王怡</t>
+    <t>王怡110</t>
   </si>
   <si>
     <t>ritaqwang</t>
   </si>
   <si>
-    <t>王倩玉1</t>
+    <t>王倩玉110</t>
   </si>
   <si>
     <t>p_yuruhuang</t>
   </si>
   <si>
-    <t>黄钰茹1</t>
+    <t>黄钰茹110</t>
   </si>
   <si>
     <t>p_myzzzhang</t>
@@ -469,13 +475,13 @@
     <t>p_kkikowang</t>
   </si>
   <si>
-    <t>王延旻1</t>
+    <t>王延旻110</t>
   </si>
   <si>
     <t>p_moosli</t>
   </si>
   <si>
-    <t>李思默</t>
+    <t>李思默110</t>
   </si>
   <si>
     <t>verseli</t>
@@ -499,13 +505,19 @@
     <t>p_landyhe</t>
   </si>
   <si>
-    <t>何娟1</t>
+    <t>何娟110</t>
   </si>
   <si>
     <t>p_ghoochen</t>
   </si>
   <si>
-    <t>陈梓豪1</t>
+    <t>陈梓豪110</t>
+  </si>
+  <si>
+    <t>keeyashen</t>
+  </si>
+  <si>
+    <t>申涵110</t>
   </si>
   <si>
     <t>reagandou</t>
@@ -514,19 +526,19 @@
     <t>窦瑞刚</t>
   </si>
   <si>
-    <t>基金会管理及发展中心</t>
+    <t>基金会管发中心</t>
   </si>
   <si>
     <t>karengao</t>
   </si>
   <si>
-    <t>高滢智1</t>
+    <t>高滢智110</t>
   </si>
   <si>
     <t>raezhang</t>
   </si>
   <si>
-    <t>张艺竞1</t>
+    <t>张艺竞110</t>
   </si>
   <si>
     <t>youngyu</t>
@@ -550,13 +562,13 @@
     <t>bonhamxia</t>
   </si>
   <si>
-    <t>夏伯翰1</t>
+    <t>夏伯翰110</t>
   </si>
   <si>
     <t>p_gxzhai</t>
   </si>
   <si>
-    <t>翟国欣1</t>
+    <t>翟国欣110</t>
   </si>
   <si>
     <t>emilycao</t>
@@ -568,13 +580,13 @@
     <t>hedyhu</t>
   </si>
   <si>
-    <t>胡燕哲1</t>
+    <t>胡燕哲110</t>
   </si>
   <si>
     <t>p_silvergao</t>
   </si>
   <si>
-    <t>高秀华</t>
+    <t>高秀华111</t>
   </si>
   <si>
     <t>p_dicai</t>
@@ -586,55 +598,49 @@
     <t>p_lannyu</t>
   </si>
   <si>
-    <t>喻兰1</t>
+    <t>喻兰110</t>
   </si>
   <si>
     <t>p_jwgu</t>
   </si>
   <si>
-    <t>顾嘉文1</t>
-  </si>
-  <si>
-    <t>p_kkehou</t>
-  </si>
-  <si>
-    <t>侯珂</t>
+    <t>顾嘉文110</t>
   </si>
   <si>
     <t>p_pjoyceguo</t>
   </si>
   <si>
-    <t>郭晓叶1</t>
+    <t>郭晓叶110</t>
   </si>
   <si>
     <t>p_wenjdeng</t>
   </si>
   <si>
-    <t>邓雯洁</t>
+    <t>邓雯洁110</t>
   </si>
   <si>
     <t>zhijuanhe</t>
   </si>
   <si>
-    <t>何志娟1</t>
+    <t>何志娟111</t>
   </si>
   <si>
     <t>p_isawang</t>
   </si>
   <si>
-    <t>王艺静1</t>
+    <t>王艺静111</t>
   </si>
   <si>
     <t>p_xyiili</t>
   </si>
   <si>
-    <t>李心怡</t>
+    <t>李心怡101</t>
   </si>
   <si>
     <t>yanjunwang</t>
   </si>
   <si>
-    <t>王艳君1</t>
+    <t>王艳君110</t>
   </si>
   <si>
     <t>qinhuanyang</t>
@@ -646,7 +652,7 @@
     <t>jameszhliu</t>
   </si>
   <si>
-    <t>刘洲鸿1</t>
+    <t>刘洲鸿110</t>
   </si>
   <si>
     <t>p_nanjing</t>
@@ -664,7 +670,7 @@
     <t>p_miorlai</t>
   </si>
   <si>
-    <t>赖妙妙1</t>
+    <t>赖妙妙110</t>
   </si>
   <si>
     <t>p_hxincui</t>
@@ -700,7 +706,7 @@
     <t>p_yyxinyao</t>
   </si>
   <si>
-    <t>姚雨昕1</t>
+    <t>姚雨昕110</t>
   </si>
   <si>
     <t>p_caracyliu</t>
@@ -709,10 +715,16 @@
     <t>刘川钰</t>
   </si>
   <si>
+    <t>p_schuanqiu</t>
+  </si>
+  <si>
+    <t>邱山川</t>
+  </si>
+  <si>
     <t>lilian</t>
   </si>
   <si>
-    <t>刘琴1</t>
+    <t>刘琴110</t>
   </si>
   <si>
     <t>产品中心</t>
@@ -721,49 +733,49 @@
     <t>speedzhuang</t>
   </si>
   <si>
-    <t>庄凌鹏1</t>
+    <t>庄凌鹏110</t>
   </si>
   <si>
     <t>jessicahe</t>
   </si>
   <si>
-    <t>何淑贞1</t>
+    <t>何淑贞110</t>
   </si>
   <si>
     <t>willgu</t>
   </si>
   <si>
-    <t>谷巍1</t>
+    <t>谷巍110</t>
   </si>
   <si>
     <t>ericzenyu</t>
   </si>
   <si>
-    <t>余和谦1</t>
+    <t>余和谦110</t>
   </si>
   <si>
     <t>gracejiao</t>
   </si>
   <si>
-    <t>焦建宁1</t>
+    <t>焦建宁110</t>
   </si>
   <si>
     <t>kikihuang</t>
   </si>
   <si>
-    <t>黄赟1</t>
+    <t>黄赟111</t>
   </si>
   <si>
     <t>leimingding</t>
   </si>
   <si>
-    <t>丁磊明1</t>
+    <t>丁磊明110</t>
   </si>
   <si>
     <t>elainexiao</t>
   </si>
   <si>
-    <t>肖渊1</t>
+    <t>肖渊110</t>
   </si>
   <si>
     <t>cshuang</t>
@@ -775,7 +787,7 @@
     <t>hankinliu</t>
   </si>
   <si>
-    <t>刘衡晶1</t>
+    <t>刘衡晶110</t>
   </si>
   <si>
     <t>jkbwang</t>
@@ -787,7 +799,7 @@
     <t>bbboliu</t>
   </si>
   <si>
-    <t>刘博1</t>
+    <t>刘博110</t>
   </si>
   <si>
     <t>p_hdxia</t>
@@ -817,7 +829,7 @@
     <t>p_ychuanliu</t>
   </si>
   <si>
-    <t>刘永传1</t>
+    <t>刘永传110</t>
   </si>
   <si>
     <t>p_ddanma</t>
@@ -829,37 +841,37 @@
     <t>litawu</t>
   </si>
   <si>
-    <t>吴洁慧</t>
+    <t>吴洁慧101</t>
   </si>
   <si>
     <t>kiitywu</t>
   </si>
   <si>
-    <t>吴孟娟1</t>
+    <t>吴孟娟110</t>
   </si>
   <si>
     <t>p_pswzheng</t>
   </si>
   <si>
-    <t>郑淑薇</t>
+    <t>郑淑薇110</t>
   </si>
   <si>
     <t>p_wktang</t>
   </si>
   <si>
-    <t>唐文康</t>
+    <t>唐文康101</t>
   </si>
   <si>
     <t>erickazhang</t>
   </si>
   <si>
-    <t>张帆1</t>
+    <t>张帆110</t>
   </si>
   <si>
     <t>p_hhuageng</t>
   </si>
   <si>
-    <t>耿华1</t>
+    <t>耿华110</t>
   </si>
   <si>
     <t>p_tonggeng</t>
@@ -895,7 +907,7 @@
     <t>p_jjminchen</t>
   </si>
   <si>
-    <t>陈佳敏1</t>
+    <t>陈佳敏110</t>
   </si>
   <si>
     <t>p_jialelai</t>
@@ -907,40 +919,28 @@
     <t>p_zchan</t>
   </si>
   <si>
-    <t>韩宗川1</t>
+    <t>韩宗川110</t>
   </si>
   <si>
     <t>p_yujinglin</t>
   </si>
   <si>
-    <t>林玉晶1</t>
+    <t>林玉晶110</t>
   </si>
   <si>
     <t>yange</t>
   </si>
   <si>
-    <t>葛燄1</t>
+    <t>葛燄110</t>
   </si>
   <si>
     <t>公益平台部</t>
   </si>
   <si>
-    <t>keeyashen</t>
-  </si>
-  <si>
-    <t>申涵1</t>
-  </si>
-  <si>
-    <t>v_vypliu</t>
-  </si>
-  <si>
-    <t>刘扬平</t>
-  </si>
-  <si>
     <t>ciccizhang</t>
   </si>
   <si>
-    <t>张星爽1</t>
+    <t>张星爽110</t>
   </si>
   <si>
     <t>数字生态实验室</t>
@@ -949,19 +949,19 @@
     <t>shuaiyu</t>
   </si>
   <si>
-    <t>于帅1</t>
+    <t>于帅110</t>
   </si>
   <si>
     <t>tracygao</t>
   </si>
   <si>
-    <t>高洁敏1</t>
+    <t>高洁敏110</t>
   </si>
   <si>
     <t>dorisbhwang</t>
   </si>
   <si>
-    <t>王斌慧1</t>
+    <t>王斌慧110</t>
   </si>
   <si>
     <t>cissili</t>
@@ -1009,7 +1009,7 @@
     <t>seanxzzhang</t>
   </si>
   <si>
-    <t>张骁1</t>
+    <t>张骁110</t>
   </si>
   <si>
     <t>lianawu</t>
@@ -1192,13 +1192,16 @@
     <t>秦川</t>
   </si>
   <si>
-    <t>集团公关部</t>
+    <t>timtxliang</t>
+  </si>
+  <si>
+    <t>梁天祥</t>
   </si>
   <si>
     <t>antingxu</t>
   </si>
   <si>
-    <t>徐岸汀1</t>
+    <t>徐岸汀110</t>
   </si>
   <si>
     <t>SSV战略中心</t>
@@ -1219,7 +1222,7 @@
     <t>rogerji</t>
   </si>
   <si>
-    <t>纪宝和1</t>
+    <t>纪宝和110</t>
   </si>
   <si>
     <t>基金会财管</t>
@@ -1243,7 +1246,7 @@
     <t>jessilin</t>
   </si>
   <si>
-    <t>林杰1</t>
+    <t>林杰110</t>
   </si>
   <si>
     <t>HRBP</t>
@@ -1252,7 +1255,7 @@
     <t>cathyyue</t>
   </si>
   <si>
-    <t>岳静1</t>
+    <t>岳静110</t>
   </si>
   <si>
     <t>部门秘书</t>
@@ -1267,12 +1270,6 @@
     <t>行政助理</t>
   </si>
   <si>
-    <t>p_schuanqiu</t>
-  </si>
-  <si>
-    <t>邱山川</t>
-  </si>
-  <si>
     <t>enya</t>
   </si>
   <si>
@@ -1301,225 +1298,6 @@
   </si>
   <si>
     <t>李哲</t>
-  </si>
-  <si>
-    <t>章文珠2</t>
-  </si>
-  <si>
-    <t>张骁2</t>
-  </si>
-  <si>
-    <t>张星爽2</t>
-  </si>
-  <si>
-    <t>夏伯翰2</t>
-  </si>
-  <si>
-    <t>于帅2</t>
-  </si>
-  <si>
-    <t>林杰2</t>
-  </si>
-  <si>
-    <t>余和谦2</t>
-  </si>
-  <si>
-    <t>岳静2</t>
-  </si>
-  <si>
-    <t>丁磊明2</t>
-  </si>
-  <si>
-    <t>肖渊2</t>
-  </si>
-  <si>
-    <t>侯爱林2</t>
-  </si>
-  <si>
-    <t>易剑2</t>
-  </si>
-  <si>
-    <t>庄凌鹏2</t>
-  </si>
-  <si>
-    <t>徐岸汀2</t>
-  </si>
-  <si>
-    <t>杨杰2</t>
-  </si>
-  <si>
-    <t>陈梓豪2</t>
-  </si>
-  <si>
-    <t>顾嘉文2</t>
-  </si>
-  <si>
-    <t>黄钰茹2</t>
-  </si>
-  <si>
-    <t>郭云程2</t>
-  </si>
-  <si>
-    <t>赖妙妙2</t>
-  </si>
-  <si>
-    <t>黄赟2</t>
-  </si>
-  <si>
-    <t>王倩玉2</t>
-  </si>
-  <si>
-    <t>申涵2</t>
-  </si>
-  <si>
-    <t>姚雨昕2</t>
-  </si>
-  <si>
-    <t>林玉晶2</t>
-  </si>
-  <si>
-    <t>韩宗川2</t>
-  </si>
-  <si>
-    <t>刘琴2</t>
-  </si>
-  <si>
-    <t>李航宇2</t>
-  </si>
-  <si>
-    <t>谷巍2</t>
-  </si>
-  <si>
-    <t>刘博2</t>
-  </si>
-  <si>
-    <t>刘永传2</t>
-  </si>
-  <si>
-    <t>郭晓叶2</t>
-  </si>
-  <si>
-    <t>张艺竞2</t>
-  </si>
-  <si>
-    <t>高滢智2</t>
-  </si>
-  <si>
-    <t>王延旻2</t>
-  </si>
-  <si>
-    <t>张帆2</t>
-  </si>
-  <si>
-    <t>王斌慧2</t>
-  </si>
-  <si>
-    <t>高洁敏2</t>
-  </si>
-  <si>
-    <t>何淑贞2</t>
-  </si>
-  <si>
-    <t>喻兰2</t>
-  </si>
-  <si>
-    <t>刘衡晶2</t>
-  </si>
-  <si>
-    <t>孙功宇2</t>
-  </si>
-  <si>
-    <t>王艺静2</t>
-  </si>
-  <si>
-    <t>翟国欣2</t>
-  </si>
-  <si>
-    <t>胡燕哲2</t>
-  </si>
-  <si>
-    <t>王艳君2</t>
-  </si>
-  <si>
-    <t>何娟2</t>
-  </si>
-  <si>
-    <t>吴孟娟2</t>
-  </si>
-  <si>
-    <t>耿小勇2</t>
-  </si>
-  <si>
-    <t>葛燄2</t>
-  </si>
-  <si>
-    <t>李兴刚2</t>
-  </si>
-  <si>
-    <t>纪宝和2</t>
-  </si>
-  <si>
-    <t>焦建宁2</t>
-  </si>
-  <si>
-    <t>何志娟2</t>
-  </si>
-  <si>
-    <t>陈维维2</t>
-  </si>
-  <si>
-    <t>刘建峥2</t>
-  </si>
-  <si>
-    <t>刘洲鸿2</t>
-  </si>
-  <si>
-    <t>陈佳敏2</t>
-  </si>
-  <si>
-    <t>耿华2</t>
-  </si>
-  <si>
-    <t>李心怡3</t>
-  </si>
-  <si>
-    <t>王艺静3</t>
-  </si>
-  <si>
-    <t>高秀华3</t>
-  </si>
-  <si>
-    <t>何志娟3</t>
-  </si>
-  <si>
-    <t>侯爱林3</t>
-  </si>
-  <si>
-    <t>李航宇3</t>
-  </si>
-  <si>
-    <t>马倩3</t>
-  </si>
-  <si>
-    <t>李兴刚3</t>
-  </si>
-  <si>
-    <t>杨晓辉3</t>
-  </si>
-  <si>
-    <t>舒克友3</t>
-  </si>
-  <si>
-    <t>傅晓晖3</t>
-  </si>
-  <si>
-    <t>唐文康3</t>
-  </si>
-  <si>
-    <t>黄赟3</t>
-  </si>
-  <si>
-    <t>吴洁慧3</t>
   </si>
 </sst>
 </file>
@@ -1532,7 +1310,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1568,6 +1346,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2040,10 +1825,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2052,34 +1837,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2091,98 +1873,101 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2199,6 +1984,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2520,10 +2308,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C286"/>
+  <dimension ref="A1:C291"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
+      <selection activeCell="E265" sqref="E265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.7522123893805" defaultRowHeight="16.1" outlineLevelCol="2"/>
@@ -2689,7 +2477,7 @@
       <c r="A15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -2733,7 +2521,7 @@
       <c r="A19" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -2821,7 +2609,7 @@
       <c r="A27" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -2942,7 +2730,7 @@
       <c r="A38" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="4" t="s">
         <v>77</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -2961,7 +2749,7 @@
       </c>
     </row>
     <row r="40" ht="13.85" spans="1:3">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="4" t="s">
         <v>80</v>
       </c>
       <c r="B40" s="4" t="s">
@@ -3184,22 +2972,22 @@
       <c r="A60" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="4" t="s">
         <v>121</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>122</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" ht="13.85" spans="1:3">
       <c r="A61" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="C61" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="62" ht="13.85" spans="1:3">
@@ -3210,7 +2998,7 @@
         <v>126</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="63" ht="13.85" spans="1:3">
@@ -3221,29 +3009,29 @@
         <v>128</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="64" ht="13.85" spans="1:3">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="4" t="s">
         <v>129</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>130</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="65" ht="13.85" spans="1:3">
       <c r="A65" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="C65" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="66" ht="13.85" spans="1:3">
@@ -3254,29 +3042,29 @@
         <v>135</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67" ht="13.85" spans="1:3">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="4" t="s">
         <v>136</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>137</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68" ht="13.85" spans="1:3">
       <c r="A68" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="4" t="s">
         <v>139</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="69" ht="13.85" spans="1:3">
@@ -3287,7 +3075,7 @@
         <v>141</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="70" ht="13.85" spans="1:3">
@@ -3298,7 +3086,7 @@
         <v>143</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="71" ht="13.85" spans="1:3">
@@ -3309,7 +3097,7 @@
         <v>145</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="72" ht="13.85" spans="1:3">
@@ -3320,51 +3108,51 @@
         <v>147</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="73" ht="13.85" spans="1:3">
       <c r="A73" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="4" t="s">
         <v>149</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="74" ht="13.85" spans="1:3">
       <c r="A74" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="3" t="s">
         <v>151</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="75" ht="13.85" spans="1:3">
       <c r="A75" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="4" t="s">
         <v>153</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="76" ht="13.85" spans="1:3">
       <c r="A76" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="4" t="s">
         <v>155</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="77" ht="13.85" spans="1:3">
@@ -3375,7 +3163,7 @@
         <v>157</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="78" ht="13.85" spans="1:3">
@@ -3386,18 +3174,18 @@
         <v>159</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="79" ht="13.85" spans="1:3">
       <c r="A79" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="3" t="s">
         <v>161</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="80" ht="13.85" spans="1:3">
@@ -3408,62 +3196,62 @@
         <v>163</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="81" ht="13.85" spans="1:3">
-      <c r="A81" s="4" t="s">
+      <c r="A81" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="82" ht="13.85" spans="1:3">
+      <c r="A82" s="4" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="82" ht="13.85" spans="1:3">
-      <c r="A82" s="3" t="s">
+      <c r="B82" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="C82" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="83" ht="13.85" spans="1:3">
+      <c r="A83" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C82" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="83" ht="13.85" spans="1:3">
-      <c r="A83" s="3" t="s">
+      <c r="B83" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="C83" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C83" s="3" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="84" ht="13.85" spans="1:3">
-      <c r="A84" s="3" t="s">
+      <c r="A84" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="4" t="s">
         <v>172</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="85" ht="13.85" spans="1:3">
       <c r="A85" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="86" ht="13.85" spans="1:3">
@@ -3474,40 +3262,40 @@
         <v>176</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="87" ht="13.85" spans="1:3">
       <c r="A87" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="3" t="s">
         <v>178</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="88" ht="13.85" spans="1:3">
       <c r="A88" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="B88" s="3" t="s">
         <v>180</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="89" ht="13.85" spans="1:3">
       <c r="A89" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="4" t="s">
         <v>182</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="90" ht="13.85" spans="1:3">
@@ -3518,7 +3306,7 @@
         <v>184</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="91" ht="13.85" spans="1:3">
@@ -3529,18 +3317,18 @@
         <v>186</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="92" ht="13.85" spans="1:3">
       <c r="A92" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="4" t="s">
         <v>188</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="93" ht="13.85" spans="1:3">
@@ -3551,51 +3339,51 @@
         <v>190</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="94" ht="13.85" spans="1:3">
       <c r="A94" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="B94" s="3" t="s">
         <v>192</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="95" ht="13.85" spans="1:3">
       <c r="A95" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="4" t="s">
         <v>194</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="96" ht="13.85" spans="1:3">
-      <c r="A96" s="4" t="s">
+      <c r="A96" s="3" t="s">
         <v>195</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>196</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="97" ht="13.85" spans="1:3">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="4" t="s">
         <v>198</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="98" ht="13.85" spans="1:3">
@@ -3606,7 +3394,7 @@
         <v>200</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="99" ht="13.85" spans="1:3">
@@ -3617,18 +3405,18 @@
         <v>202</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="100" ht="13.85" spans="1:3">
       <c r="A100" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" s="4" t="s">
         <v>204</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="101" ht="13.85" spans="1:3">
@@ -3639,40 +3427,40 @@
         <v>206</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="102" ht="13.85" spans="1:3">
-      <c r="A102" s="3" t="s">
+      <c r="A102" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" s="4" t="s">
         <v>208</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="103" ht="13.85" spans="1:3">
       <c r="A103" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="B103" s="3" t="s">
         <v>210</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="104" ht="13.85" spans="1:3">
       <c r="A104" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" s="4" t="s">
         <v>212</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="105" ht="13.85" spans="1:3">
@@ -3683,29 +3471,29 @@
         <v>214</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="106" ht="13.85" spans="1:3">
       <c r="A106" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="B106" s="3" t="s">
         <v>216</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="107" ht="13.85" spans="1:3">
       <c r="A107" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B107" s="4" t="s">
         <v>218</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="108" ht="13.85" spans="1:3">
@@ -3716,7 +3504,7 @@
         <v>220</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="109" ht="13.85" spans="1:3">
@@ -3727,7 +3515,7 @@
         <v>222</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="110" ht="13.85" spans="1:3">
@@ -3738,7 +3526,7 @@
         <v>224</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="111" ht="13.85" spans="1:3">
@@ -3749,62 +3537,62 @@
         <v>226</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="112" ht="13.85" spans="1:3">
-      <c r="A112" s="4" t="s">
+      <c r="A112" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="B112" s="4" t="s">
+      <c r="B112" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="113" ht="13.85" spans="1:3">
-      <c r="A113" s="3" t="s">
+      <c r="A113" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B113" s="4" t="s">
         <v>230</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="114" ht="13.85" spans="1:3">
       <c r="A114" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B114" s="4" t="s">
+      <c r="B114" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="C114" s="4" t="s">
+      <c r="C114" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="115" ht="13.85" spans="1:3">
+      <c r="A115" s="5" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="115" ht="13.85" spans="1:3">
-      <c r="A115" s="3" t="s">
+      <c r="B115" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="B115" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>233</v>
+      <c r="C115" s="5" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="116" ht="13.85" spans="1:3">
       <c r="A116" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B116" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="B116" s="4" t="s">
-        <v>237</v>
-      </c>
       <c r="C116" s="4" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="117" ht="13.85" spans="1:3">
@@ -3815,7 +3603,7 @@
         <v>239</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="118" ht="13.85" spans="1:3">
@@ -3826,7 +3614,7 @@
         <v>241</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="119" ht="13.85" spans="1:3">
@@ -3837,7 +3625,7 @@
         <v>243</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="120" ht="13.85" spans="1:3">
@@ -3848,7 +3636,7 @@
         <v>245</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="121" ht="13.85" spans="1:3">
@@ -3859,7 +3647,7 @@
         <v>247</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="122" ht="13.85" spans="1:3">
@@ -3870,18 +3658,18 @@
         <v>249</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="123" ht="13.85" spans="1:3">
       <c r="A123" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B123" s="4" t="s">
         <v>251</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="124" ht="13.85" spans="1:3">
@@ -3892,18 +3680,18 @@
         <v>253</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="125" ht="13.85" spans="1:3">
       <c r="A125" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B125" s="4" t="s">
         <v>255</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="126" ht="13.85" spans="1:3">
@@ -3914,7 +3702,7 @@
         <v>257</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="127" ht="13.85" spans="1:3">
@@ -3925,18 +3713,18 @@
         <v>259</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="128" ht="13.85" spans="1:3">
       <c r="A128" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="B128" s="4" t="s">
         <v>261</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="129" ht="13.85" spans="1:3">
@@ -3947,7 +3735,7 @@
         <v>263</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="130" ht="13.85" spans="1:3">
@@ -3958,18 +3746,18 @@
         <v>265</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="131" ht="13.85" spans="1:3">
       <c r="A131" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="B131" s="4" t="s">
+      <c r="B131" s="3" t="s">
         <v>267</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="132" ht="13.85" spans="1:3">
@@ -3980,51 +3768,51 @@
         <v>269</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="133" ht="13.85" spans="1:3">
       <c r="A133" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="B133" s="4" t="s">
         <v>271</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="134" ht="13.85" spans="1:3">
       <c r="A134" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B134" s="4" t="s">
+      <c r="B134" s="3" t="s">
         <v>273</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="135" ht="13.85" spans="1:3">
       <c r="A135" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="B135" s="3" t="s">
+      <c r="B135" s="4" t="s">
         <v>275</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="136" ht="13.85" spans="1:3">
       <c r="A136" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="B136" s="4" t="s">
         <v>277</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="137" ht="13.85" spans="1:3">
@@ -4035,40 +3823,40 @@
         <v>279</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="138" ht="13.85" spans="1:3">
-      <c r="A138" s="4" t="s">
+      <c r="A138" s="3" t="s">
         <v>280</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>281</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="139" ht="13.85" spans="1:3">
       <c r="A139" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="B139" s="3" t="s">
+      <c r="B139" s="4" t="s">
         <v>283</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="140" ht="13.85" spans="1:3">
-      <c r="A140" s="3" t="s">
+      <c r="A140" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="B140" s="4" t="s">
         <v>285</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="141" ht="13.85" spans="1:3">
@@ -4079,7 +3867,7 @@
         <v>287</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="142" ht="13.85" spans="1:3">
@@ -4090,7 +3878,7 @@
         <v>289</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="143" ht="13.85" spans="1:3">
@@ -4101,18 +3889,18 @@
         <v>291</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="144" ht="13.85" spans="1:3">
       <c r="A144" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="B144" s="4" t="s">
+      <c r="B144" s="3" t="s">
         <v>293</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="145" ht="13.85" spans="1:3">
@@ -4123,7 +3911,7 @@
         <v>295</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="146" ht="13.85" spans="1:3">
@@ -4134,51 +3922,51 @@
         <v>297</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="147" ht="13.85" spans="1:3">
       <c r="A147" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="B147" s="4" t="s">
+      <c r="B147" s="3" t="s">
         <v>299</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="148" ht="13.85" spans="1:3">
-      <c r="A148" s="4" t="s">
+      <c r="A148" s="3" t="s">
         <v>300</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>301</v>
       </c>
       <c r="C148" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="149" ht="13.85" spans="1:3">
+      <c r="A149" s="3" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="149" ht="13.85" spans="1:3">
-      <c r="A149" s="4" t="s">
+      <c r="B149" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="B149" s="4" t="s">
-        <v>304</v>
-      </c>
       <c r="C149" s="4" t="s">
-        <v>131</v>
+        <v>237</v>
       </c>
     </row>
     <row r="150" ht="13.85" spans="1:3">
       <c r="A150" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B150" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="B150" s="3" t="s">
+      <c r="C150" s="4" t="s">
         <v>306</v>
-      </c>
-      <c r="C150" s="4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="151" ht="13.85" spans="1:3">
@@ -4618,125 +4406,125 @@
         <v>391</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
     </row>
     <row r="191" ht="13.85" spans="1:3">
       <c r="A191" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B191" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="B191" s="5" t="s">
-        <v>394</v>
-      </c>
       <c r="C191" s="5" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
     </row>
     <row r="192" ht="13.85" spans="1:3">
       <c r="A192" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="C192" s="5" t="s">
         <v>396</v>
-      </c>
-      <c r="B192" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="C192" s="5" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="193" ht="13.85" spans="1:3">
       <c r="A193" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="B193" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="B193" s="5" t="s">
-        <v>399</v>
-      </c>
       <c r="C193" s="5" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="194" ht="13.85" spans="1:3">
       <c r="A194" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="B194" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="B194" s="5" t="s">
-        <v>401</v>
-      </c>
       <c r="C194" s="5" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="195" ht="13.85" spans="1:3">
       <c r="A195" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="C195" s="5" t="s">
         <v>403</v>
-      </c>
-      <c r="B195" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="C195" s="5" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="196" ht="13.85" spans="1:3">
       <c r="A196" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B196" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="B196" s="5" t="s">
-        <v>406</v>
-      </c>
       <c r="C196" s="5" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="197" ht="13.85" spans="1:3">
       <c r="A197" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="C197" s="5" t="s">
         <v>408</v>
-      </c>
-      <c r="B197" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="C197" s="5" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="198" ht="13.85" spans="1:3">
       <c r="A198" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="C198" s="5" t="s">
         <v>411</v>
-      </c>
-      <c r="B198" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="C198" s="5" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="199" ht="13.85" spans="1:3">
       <c r="A199" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="C199" s="5" t="s">
         <v>414</v>
-      </c>
-      <c r="B199" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="C199" s="5" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="200" ht="13.85" spans="1:3">
       <c r="A200" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="C200" s="5" t="s">
         <v>417</v>
-      </c>
-      <c r="B200" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="C200" s="5" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="201" ht="13.85" spans="1:3">
       <c r="A201" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="B201" s="5" t="s">
         <v>419</v>
-      </c>
-      <c r="B201" s="5" t="s">
-        <v>420</v>
       </c>
       <c r="C201" s="5" t="s">
         <v>363</v>
@@ -4744,10 +4532,10 @@
     </row>
     <row r="202" ht="13.85" spans="1:3">
       <c r="A202" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="B202" s="5" t="s">
         <v>421</v>
-      </c>
-      <c r="B202" s="5" t="s">
-        <v>422</v>
       </c>
       <c r="C202" s="5" t="s">
         <v>383</v>
@@ -4755,10 +4543,10 @@
     </row>
     <row r="203" ht="13.85" spans="1:3">
       <c r="A203" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="B203" s="5" t="s">
         <v>423</v>
-      </c>
-      <c r="B203" s="5" t="s">
-        <v>424</v>
       </c>
       <c r="C203" s="5" t="s">
         <v>376</v>
@@ -4766,10 +4554,10 @@
     </row>
     <row r="204" ht="13.85" spans="1:3">
       <c r="A204" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="B204" s="5" t="s">
         <v>425</v>
-      </c>
-      <c r="B204" s="5" t="s">
-        <v>426</v>
       </c>
       <c r="C204" s="5" t="s">
         <v>376</v>
@@ -4777,10 +4565,10 @@
     </row>
     <row r="205" ht="13.85" spans="1:3">
       <c r="A205" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="B205" s="5" t="s">
         <v>427</v>
-      </c>
-      <c r="B205" s="5" t="s">
-        <v>428</v>
       </c>
       <c r="C205" s="5" t="s">
         <v>309</v>
@@ -4791,7 +4579,7 @@
         <v>52</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>429</v>
+        <v>53</v>
       </c>
       <c r="C206" s="3" t="s">
         <v>5</v>
@@ -4802,7 +4590,7 @@
         <v>330</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>430</v>
+        <v>331</v>
       </c>
       <c r="C207" s="3" t="s">
         <v>309</v>
@@ -4813,7 +4601,7 @@
         <v>307</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>431</v>
+        <v>308</v>
       </c>
       <c r="C208" s="3" t="s">
         <v>309</v>
@@ -4821,13 +4609,13 @@
     </row>
     <row r="209" ht="13.85" spans="1:3">
       <c r="A209" s="5" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>432</v>
+        <v>182</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="210" ht="13.85" spans="1:3">
@@ -4835,7 +4623,7 @@
         <v>310</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>433</v>
+        <v>311</v>
       </c>
       <c r="C210" s="3" t="s">
         <v>309</v>
@@ -4843,68 +4631,68 @@
     </row>
     <row r="211" ht="13.85" spans="1:3">
       <c r="A211" s="5" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>434</v>
+        <v>410</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="212" ht="13.85" spans="1:3">
       <c r="A212" s="5" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>435</v>
+        <v>245</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="213" ht="13.85" spans="1:3">
       <c r="A213" s="5" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>436</v>
+        <v>413</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="214" ht="13.85" spans="1:3">
       <c r="A214" s="5" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>437</v>
+        <v>251</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="215" ht="13.85" spans="1:3">
       <c r="A215" s="5" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>438</v>
+        <v>253</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="216" ht="13.85" spans="1:3">
       <c r="A216" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>439</v>
+        <v>139</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="217" ht="13.85" spans="1:3">
@@ -4912,7 +4700,7 @@
         <v>14</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>440</v>
+        <v>15</v>
       </c>
       <c r="C217" s="3" t="s">
         <v>5</v>
@@ -4920,68 +4708,68 @@
     </row>
     <row r="218" ht="13.85" spans="1:3">
       <c r="A218" s="5" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>441</v>
+        <v>239</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="219" ht="13.85" spans="1:3">
       <c r="A219" s="5" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>442</v>
+        <v>395</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="220" ht="13.85" spans="1:3">
       <c r="A220" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>443</v>
+        <v>137</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="221" ht="13.85" spans="1:3">
       <c r="A221" s="5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>444</v>
+        <v>165</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="222" ht="13.85" spans="1:3">
       <c r="A222" s="5" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>445</v>
+        <v>196</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="223" ht="13.85" spans="1:3">
       <c r="A223" s="5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>446</v>
+        <v>149</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="224" ht="13.85" spans="1:3">
@@ -4989,7 +4777,7 @@
         <v>78</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>447</v>
+        <v>79</v>
       </c>
       <c r="C224" s="3" t="s">
         <v>5</v>
@@ -4997,90 +4785,90 @@
     </row>
     <row r="225" ht="13.85" spans="1:3">
       <c r="A225" s="5" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>448</v>
+        <v>218</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="226" ht="13.85" spans="1:3">
       <c r="A226" s="5" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>449</v>
+        <v>249</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="227" ht="13.85" spans="1:3">
       <c r="A227" s="5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>450</v>
+        <v>147</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="228" ht="13.85" spans="1:3">
       <c r="A228" s="5" t="s">
-        <v>303</v>
+        <v>166</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>451</v>
+        <v>167</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="229" ht="13.85" spans="1:3">
       <c r="A229" s="5" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>452</v>
+        <v>230</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="230" ht="13.85" spans="1:3">
       <c r="A230" s="5" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>453</v>
+        <v>303</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="231" ht="13.85" spans="1:3">
       <c r="A231" s="5" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>454</v>
+        <v>301</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="232" ht="13.85" spans="1:3">
       <c r="A232" s="5" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>455</v>
+        <v>236</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="233" ht="13.85" spans="1:3">
@@ -5088,7 +4876,7 @@
         <v>80</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>456</v>
+        <v>81</v>
       </c>
       <c r="C233" s="3" t="s">
         <v>5</v>
@@ -5096,90 +4884,90 @@
     </row>
     <row r="234" ht="13.85" spans="1:3">
       <c r="A234" s="5" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>457</v>
+        <v>243</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="235" ht="13.85" spans="1:3">
       <c r="A235" s="5" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>458</v>
+        <v>261</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="236" ht="13.85" spans="1:3">
       <c r="A236" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>459</v>
+        <v>271</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="237" ht="13.85" spans="1:3">
       <c r="A237" s="5" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>460</v>
+        <v>198</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="238" ht="13.85" spans="1:3">
       <c r="A238" s="5" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>461</v>
+        <v>174</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="239" ht="13.85" spans="1:3">
       <c r="A239" s="5" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>462</v>
+        <v>172</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="240" ht="13.85" spans="1:3">
       <c r="A240" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>463</v>
+        <v>153</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="241" ht="13.85" spans="1:3">
       <c r="A241" s="5" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>464</v>
+        <v>283</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="242" ht="13.85" spans="1:3">
@@ -5187,7 +4975,7 @@
         <v>314</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>465</v>
+        <v>315</v>
       </c>
       <c r="C242" s="3" t="s">
         <v>309</v>
@@ -5198,7 +4986,7 @@
         <v>312</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>466</v>
+        <v>313</v>
       </c>
       <c r="C243" s="3" t="s">
         <v>309</v>
@@ -5206,35 +4994,35 @@
     </row>
     <row r="244" ht="13.85" spans="1:3">
       <c r="A244" s="5" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>467</v>
+        <v>241</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="245" ht="13.85" spans="1:3">
       <c r="A245" s="5" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>468</v>
+        <v>194</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="246" ht="13.85" spans="1:3">
       <c r="A246" s="5" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>469</v>
+        <v>257</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="247" ht="13.85" spans="1:3">
@@ -5242,7 +5030,7 @@
         <v>64</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>470</v>
+        <v>65</v>
       </c>
       <c r="C247" s="3" t="s">
         <v>5</v>
@@ -5250,90 +5038,90 @@
     </row>
     <row r="248" ht="13.85" spans="1:3">
       <c r="A248" s="5" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>471</v>
+        <v>204</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="249" ht="13.85" spans="1:3">
       <c r="A249" s="5" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>472</v>
+        <v>184</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="250" ht="13.85" spans="1:3">
       <c r="A250" s="5" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>473</v>
+        <v>188</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="251" ht="13.85" spans="1:3">
       <c r="A251" s="5" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>474</v>
+        <v>208</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="252" ht="13.85" spans="1:3">
       <c r="A252" s="5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>475</v>
+        <v>163</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="253" ht="13.85" spans="1:3">
       <c r="A253" s="5" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>476</v>
+        <v>277</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="254" ht="13.85" spans="1:3">
       <c r="A254" s="5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>477</v>
+        <v>135</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="255" ht="13.85" spans="1:3">
       <c r="A255" s="5" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>478</v>
+        <v>305</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="256" ht="13.85" spans="1:3">
@@ -5341,7 +5129,7 @@
         <v>22</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>479</v>
+        <v>23</v>
       </c>
       <c r="C256" s="3" t="s">
         <v>5</v>
@@ -5349,35 +5137,35 @@
     </row>
     <row r="257" ht="13.85" spans="1:3">
       <c r="A257" s="5" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>480</v>
+        <v>402</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="258" ht="13.85" spans="1:3">
       <c r="A258" s="5" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>481</v>
+        <v>247</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="259" ht="13.85" spans="1:3">
       <c r="A259" s="5" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>482</v>
+        <v>202</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="260" ht="13.85" spans="1:3">
@@ -5385,10 +5173,10 @@
         <v>72</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>483</v>
+        <v>73</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="261" ht="13.85" spans="1:3">
@@ -5396,7 +5184,7 @@
         <v>26</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>484</v>
+        <v>27</v>
       </c>
       <c r="C261" s="5" t="s">
         <v>5</v>
@@ -5404,153 +5192,153 @@
     </row>
     <row r="262" ht="13.85" spans="1:3">
       <c r="A262" s="5" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>485</v>
+        <v>212</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="263" ht="13.85" spans="1:3">
       <c r="A263" s="5" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>486</v>
+        <v>297</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="264" ht="13.85" spans="1:3">
       <c r="A264" s="5" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>487</v>
+        <v>285</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="265" ht="13.85" spans="1:3">
       <c r="A265" s="5" t="s">
-        <v>203</v>
+        <v>278</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>488</v>
+        <v>279</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>166</v>
+        <v>237</v>
       </c>
     </row>
     <row r="266" ht="13.85" spans="1:3">
       <c r="A266" s="5" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>489</v>
+        <v>190</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="267" ht="13.85" spans="1:3">
       <c r="A267" s="5" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>490</v>
+        <v>200</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="268" ht="13.85" spans="1:3">
       <c r="A268" s="5" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="C268" s="3" t="s">
-        <v>166</v>
+        <v>155</v>
+      </c>
+      <c r="C268" s="5" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="269" ht="13.85" spans="1:3">
       <c r="A269" s="5" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>492</v>
+        <v>145</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="270" ht="13.85" spans="1:3">
       <c r="A270" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B270" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C270" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="271" ht="13.85" spans="1:3">
+      <c r="A271" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B271" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C271" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="272" ht="13.85" spans="1:3">
+      <c r="A272" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B272" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C272" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="273" ht="13.85" spans="1:3">
+      <c r="A273" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B273" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C273" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="274" ht="13.85" spans="1:3">
+      <c r="A274" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B274" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C274" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="275" ht="13.85" spans="1:3">
+      <c r="A275" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B270" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="C270" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="271" ht="13.85" spans="1:3">
-      <c r="A271" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B271" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="C271" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="272" ht="13.85" spans="1:3">
-      <c r="A272" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B272" s="5" t="s">
-        <v>495</v>
-      </c>
-      <c r="C272" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="273" ht="13.85" spans="1:3">
-      <c r="A273" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B273" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="C273" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="274" ht="13.85" spans="1:3">
-      <c r="A274" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B274" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="C274" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="275" ht="13.85" spans="1:3">
-      <c r="A275" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B275" s="5" t="s">
-        <v>498</v>
+      <c r="B275" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="C275" s="5" t="s">
         <v>5</v>
@@ -5558,60 +5346,115 @@
     </row>
     <row r="276" ht="13.85" spans="1:3">
       <c r="A276" s="5" t="s">
-        <v>276</v>
+        <v>38</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="C276" s="3" t="s">
-        <v>233</v>
+        <v>39</v>
+      </c>
+      <c r="C276" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="277" ht="13.85" spans="1:3">
-      <c r="A277" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="B277" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="C277" s="3" t="s">
-        <v>233</v>
+      <c r="A277" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B277" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C277" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="278" ht="13.85" spans="1:3">
       <c r="A278" s="5" t="s">
-        <v>270</v>
+        <v>30</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="C278" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="279" spans="1:1">
-      <c r="A279" s="5"/>
-    </row>
-    <row r="280" spans="1:1">
-      <c r="A280" s="5"/>
-    </row>
-    <row r="281" spans="1:1">
-      <c r="A281" s="5"/>
-    </row>
-    <row r="282" spans="1:1">
-      <c r="A282" s="5"/>
-    </row>
-    <row r="283" spans="1:1">
-      <c r="A283" s="5"/>
-    </row>
-    <row r="284" spans="1:1">
+        <v>31</v>
+      </c>
+      <c r="C278" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="279" ht="13.85" spans="1:3">
+      <c r="A279" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B279" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C279" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="280" ht="13.85" spans="1:3">
+      <c r="A280" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B280" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C280" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="281" ht="13.85" spans="1:3">
+      <c r="A281" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B281" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C281" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="282" ht="13.85" spans="1:3">
+      <c r="A282" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="B282" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C282" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="283" ht="13.85" spans="1:3">
+      <c r="A283" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B283" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C283" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="284" ht="13.85" spans="1:1">
       <c r="A284" s="5"/>
     </row>
-    <row r="285" spans="1:1">
+    <row r="285" ht="13.85" spans="1:1">
       <c r="A285" s="5"/>
     </row>
-    <row r="286" spans="1:1">
+    <row r="286" ht="13.85" spans="1:1">
       <c r="A286" s="5"/>
+    </row>
+    <row r="287" ht="13.85" spans="1:1">
+      <c r="A287" s="5"/>
+    </row>
+    <row r="288" ht="13.85" spans="1:1">
+      <c r="A288" s="5"/>
+    </row>
+    <row r="289" ht="13.85" spans="1:1">
+      <c r="A289" s="5"/>
+    </row>
+    <row r="290" ht="13.85" spans="1:1">
+      <c r="A290" s="5"/>
+    </row>
+    <row r="291" ht="13.85" spans="1:1">
+      <c r="A291" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/server/data/users.xlsx
+++ b/server/data/users.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="191">
   <si>
     <t>工号</t>
   </si>
@@ -464,6 +464,9 @@
   </si>
   <si>
     <t>葛燄</t>
+  </si>
+  <si>
+    <t>咖啡杯</t>
   </si>
   <si>
     <t>xinggangli</t>
@@ -1546,8 +1549,8 @@
   <sheetPr/>
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.7522123893805" defaultRowHeight="16.1" outlineLevelCol="2"/>
@@ -2113,80 +2116,82 @@
       <c r="B51" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C51" s="3"/>
+      <c r="C51" s="3" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>117</v>
@@ -2194,10 +2199,10 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>105</v>
@@ -2205,68 +2210,68 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
